--- a/medicine/Enfance/Carlos_Salem/Carlos_Salem.xlsx
+++ b/medicine/Enfance/Carlos_Salem/Carlos_Salem.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlos Salem,  né en 1959 à Buenos Aires, est un écrivain, poète et journaliste[1] argentin, surtout connu pour ses romans policiers de la série du Tigre blanc, et des ouvrages de littérature d'enfance et de jeunesse ayant pour héros le jeune Nahuel.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlos Salem,  né en 1959 à Buenos Aires, est un écrivain, poète et journaliste argentin, surtout connu pour ses romans policiers de la série du Tigre blanc, et des ouvrages de littérature d'enfance et de jeunesse ayant pour héros le jeune Nahuel.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Carlos Salem fuit la dictature en Argentine et vit en Espagne depuis 1988. Il s'installe à Madrid à partir de 2000 et collabore avec divers magazines, dont Marie Claire, Cosmopolitan et Ser Padres.
 À partir de 2006, il devient un des directeurs du bar culturel Bukowski Club et organise des séances hebdomadaires de lecture d'œuvres poétiques et de courts récits de fiction. 
@@ -547,15 +561,88 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Tigre blanc
-Le Fils du Tigre Blanc, Actes Sud, coll. « Sud Junior », 2013 ((es) El hijo del Tigre Blanco, 2013), trad. Judith Vernant  (ISBN 978-2-330-01920-4)
+          <t>Série Tigre blanc</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le Fils du Tigre Blanc, Actes Sud, coll. « Sud Junior », 2013 ((es) El hijo del Tigre Blanco, 2013), trad. Judith Vernant  (ISBN 978-2-330-01920-4)
 La Malédiction du Tigre Blanc, Actes Sud, coll. « Sud Junior », 2014 ((es) La maldición del tigre blanco, 2013), trad. Judith Vernant  (ISBN 978-2-330-03452-8)
 (es) El dilema del tigre blanco, 2014
-(es) El tesoro del tigre blanco, 2014
-Série Enquête de la Brigade des apôtres de Severo Justo
-Ceux qui méritent de mourir, Actes Sud, coll. « Actes noirs », 2024 ((es) Los que merecen morir, 2021), trad. Judith Vernant, 384 p.  (ISBN 978-2-330-19110-8)
-Romans indépendants
-Aller simple, Actes Sud, coll. « Babel noir » no 38, 2010 ((es) Camino de ida, 2007), trad. Danielle Schramm  (ISBN 978-2-7427-9313-6)
+(es) El tesoro del tigre blanco, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Enquête de la Brigade des apôtres de Severo Justo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ceux qui méritent de mourir, Actes Sud, coll. « Actes noirs », 2024 ((es) Los que merecen morir, 2021), trad. Judith Vernant, 384 p.  (ISBN 978-2-330-19110-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aller simple, Actes Sud, coll. « Babel noir » no 38, 2010 ((es) Camino de ida, 2007), trad. Danielle Schramm  (ISBN 978-2-7427-9313-6)
 Nager sans se mouiller, Actes Sud, coll. « Actes noirs », 2010 ((es) Matar y guardar la ropa, 2008), trad. Danielle Schramm  (ISBN 978-2-7427-9246-7)Réédition, Actes Sud, coll. « Babel noir » no 48, 2011  (ISBN 978-2-7427-9960-2)
 Je reste roi d'Espagne, Actes Sud, coll. « Actes noirs », 2011 ((es) Pero sigo siendo el rey, 2009), trad. Danielle Schramm  (ISBN 978-2-7427-9750-9)Réédition, Actes Sud, coll. « Babel noir » no 78, 2013  (ISBN 978-2-330-01510-7)
 (es) Cracovia sin ti, 2010
@@ -570,9 +657,43 @@
 (es) Donde el tiempo ya no duele, 2019
 (es) Diario de un perfecto abandonado, 2020
 (es) Madrid nos mata, 2022
-(es) Los dioses también mueren, 2023
-Poésie
-Orgie casanière, Zinnia éditions, 2015 ((es) Orgía de andar por casa, 2009), trad. Anne-Claire Huby  (ISBN 979-10-92948-15-8)</t>
+(es) Los dioses también mueren, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carlos_Salem</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Orgie casanière, Zinnia éditions, 2015 ((es) Orgía de andar por casa, 2009), trad. Anne-Claire Huby  (ISBN 979-10-92948-15-8)</t>
         </is>
       </c>
     </row>
